--- a/Sprungdaten_processed/Verteilung_data_point_jumps.xlsx
+++ b/Sprungdaten_processed/Verteilung_data_point_jumps.xlsx
@@ -64,18 +64,18 @@
     <t>Baby- Fliffis C</t>
   </si>
   <si>
+    <t>Cody C</t>
+  </si>
+  <si>
     <t>3/4 Salto rw A</t>
   </si>
   <si>
-    <t>Cody C</t>
+    <t>Schraubensalto</t>
   </si>
   <si>
     <t>Rudi</t>
   </si>
   <si>
-    <t>Schraubensalto</t>
-  </si>
-  <si>
     <t>Barani B</t>
   </si>
   <si>
@@ -91,25 +91,28 @@
     <t>40/</t>
   </si>
   <si>
+    <t>Fliffis aus B</t>
+  </si>
+  <si>
     <t>1/2 ein 1/2 aus C</t>
   </si>
   <si>
-    <t>Fliffis aus B</t>
-  </si>
-  <si>
     <t>Fliffis aus C</t>
   </si>
   <si>
     <t>Fliffis Rudi C</t>
   </si>
   <si>
+    <t>40&lt;</t>
+  </si>
+  <si>
     <t>Voll- ein- halb- aus B</t>
   </si>
   <si>
     <t>43/</t>
   </si>
   <si>
-    <t>40&lt;</t>
+    <t>Voll- ein 1 3/4 Salto vw C</t>
   </si>
   <si>
     <t>1 3/4 Salto vw B</t>
@@ -118,52 +121,49 @@
     <t>Voll- ein- Rudi- aus B</t>
   </si>
   <si>
-    <t>Voll- ein 1 3/4 Salto vw C</t>
+    <t>Triffis B</t>
   </si>
   <si>
     <t>1 3/4 Salto vw C</t>
   </si>
   <si>
-    <t>Triffis B</t>
+    <t>41/</t>
+  </si>
+  <si>
+    <t>41°</t>
   </si>
   <si>
     <t>Voll- ein- voll- aus C</t>
   </si>
   <si>
-    <t>41/</t>
-  </si>
-  <si>
-    <t>41°</t>
+    <t>40°</t>
   </si>
   <si>
     <t>Voll- ein- voll- aus A</t>
   </si>
   <si>
-    <t>40°</t>
-  </si>
-  <si>
     <t>Voll- ein- halb- aus C</t>
   </si>
   <si>
+    <t>Halb- ein- halb- aus C</t>
+  </si>
+  <si>
     <t>1/2 ein 1/2 aus B</t>
   </si>
   <si>
+    <t>Voll- ein- doppel- aus A</t>
+  </si>
+  <si>
+    <t>Fliffis aus C aus dem Rücken</t>
+  </si>
+  <si>
+    <t>Halb- ein- Rudy- aus B</t>
+  </si>
+  <si>
+    <t>Triffis C</t>
+  </si>
+  <si>
     <t>1 3/4 salto Vorwärts B</t>
-  </si>
-  <si>
-    <t>Fliffis aus C aus dem Rücken</t>
-  </si>
-  <si>
-    <t>Triffis C</t>
-  </si>
-  <si>
-    <t>Halb- ein- Rudy- aus B</t>
-  </si>
-  <si>
-    <t>Voll- ein- doppel- aus A</t>
-  </si>
-  <si>
-    <t>Halb- ein- halb- aus C</t>
   </si>
   <si>
     <t>Halb- ein- halb- aus B</t>
